--- a/data/trans_dic/P7C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 6 años</t>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,17%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>34,17%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7,82%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,25%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>6,96%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>4,05%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>26,76%</t>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 13,94</t>
+          <t>2,47; 15,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,71</t>
+          <t>0,79; 7,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,92</t>
+          <t>0,75; 6,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,03; 51,06</t>
+          <t>2,27; 12,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,31</t>
+          <t>5,46; 18,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 9,36</t>
+          <t>8,13; 22,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 12,44</t>
+          <t>4,59; 13,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,43</t>
+          <t>2,16; 9,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 33,58</t>
+          <t>3,5; 11,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,59</t>
+          <t>3,19; 10,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,89</t>
+          <t>6,58; 17,17</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,31</t>
+          <t>3,09; 13,08</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,33</t>
+          <t>8,78; 21,82</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 38,63</t>
+          <t>4,57; 11,66</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 6,88</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 7,29</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 5,82</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 12,77</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 13,93</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 20,17</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>44,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>44,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>37,08%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>39,25%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>38,37%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>37,06%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>68,68%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>38,66%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>29,9%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,02; 37,28</t>
+          <t>20,93; 38,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,39; 42,67</t>
+          <t>21,75; 41,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 37,88</t>
+          <t>21,69; 37,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 40,83</t>
+          <t>22,63; 40,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 82,57</t>
+          <t>33,18; 60,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,37; 53,61</t>
+          <t>15,0; 30,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,85; 56,54</t>
+          <t>9,81; 23,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,18; 55,24</t>
+          <t>39,36; 53,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,71; 52,46</t>
+          <t>39,68; 54,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,0; 80,33</t>
+          <t>41,35; 54,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 42,87</t>
+          <t>37,66; 51,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,83; 45,0</t>
+          <t>37,33; 52,77</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,46; 43,87</t>
+          <t>29,63; 44,81</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,36; 42,61</t>
+          <t>37,52; 52,89</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>55,58; 76,94</t>
+          <t>31,79; 42,68</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>32,65; 45,28</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>32,83; 43,38</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>31,58; 43,26</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>37,33; 54,15</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 35,03</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>24,29; 35,68</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>34,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>33,35%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>34,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>34,06%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>36,08%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>37,52%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>35,86%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>44,85%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>34,33%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>39,51%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,71; 46,7</t>
+          <t>32,11; 46,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,3; 49,04</t>
+          <t>31,96; 47,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,81; 48,17</t>
+          <t>35,03; 48,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,88; 45,77</t>
+          <t>31,3; 44,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,46; 67,9</t>
+          <t>36,18; 51,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 38,65</t>
+          <t>27,94; 40,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,37; 40,36</t>
+          <t>35,3; 49,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,49; 38,86</t>
+          <t>28,53; 38,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 38,53</t>
+          <t>31,19; 42,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,79; 57,43</t>
+          <t>29,62; 39,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,09; 40,55</t>
+          <t>29,44; 39,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,78; 43,08</t>
+          <t>39,74; 51,99</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 41,83</t>
+          <t>28,4; 41,15</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 40,35</t>
+          <t>29,91; 43,59</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>47,72; 59,44</t>
+          <t>31,67; 40,49</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>32,87; 42,38</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>33,38; 41,95</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31,96; 40,29</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>39,87; 49,83</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 38,78</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>34,7; 44,56</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>3,77%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,09%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>4,6%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>18,65%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,53</t>
+          <t>3,08; 8,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,79</t>
+          <t>3,04; 8,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,51</t>
+          <t>3,0; 10,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,51</t>
+          <t>2,3; 6,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 36,38</t>
+          <t>13,99; 24,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,12</t>
+          <t>5,6; 18,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,61</t>
+          <t>12,14; 22,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,71</t>
+          <t>2,14; 6,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,08</t>
+          <t>1,92; 6,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 21,23</t>
+          <t>2,36; 6,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,35</t>
+          <t>3,28; 8,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,37</t>
+          <t>14,54; 24,35</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,38</t>
+          <t>2,19; 7,37</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,41</t>
+          <t>13,29; 23,13</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 27,78</t>
+          <t>3,16; 6,37</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 6,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 7,39</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 6,42</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 22,28</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 10,86</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 21,08</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>4,54%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>3,51%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>47,62%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,08</t>
+          <t>1,08; 5,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,44</t>
+          <t>1,68; 6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,99</t>
+          <t>1,45; 5,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,09</t>
+          <t>0,88; 4,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,25; 75,08</t>
+          <t>2,06; 7,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,62</t>
+          <t>2,34; 9,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,51</t>
+          <t>2,66; 9,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,91</t>
+          <t>2,28; 7,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,64</t>
+          <t>2,1; 7,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,15; 67,37</t>
+          <t>1,99; 7,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,53</t>
+          <t>0,74; 4,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,86</t>
+          <t>1,59; 7,22</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,9</t>
+          <t>2,73; 8,16</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,51</t>
+          <t>5,05; 12,8</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>31,18; 63,84</t>
+          <t>2,16; 5,37</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 6,45</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,51</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,6</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 6,03</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 7,91</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 9,77</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,65%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>1,8%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>38,19%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 11,89</t>
+          <t>0,48; 12,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 19,44</t>
+          <t>1,11; 16,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 17,15</t>
+          <t>0,9; 15,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,66</t>
+          <t>0,42; 3,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 88,61</t>
+          <t>0,54; 6,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,88; 6,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,93</t>
+          <t>1,52; 8,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,94</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,14</t>
+          <t>0,76; 5,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 70,65</t>
+          <t>0,83; 5,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,29</t>
+          <t>0,72; 5,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 9,62</t>
+          <t>1,3; 16,5</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,71</t>
+          <t>0,46; 4,61</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,79</t>
+          <t>2,49; 9,57</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 65,26</t>
+          <t>0,57; 5,81</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 8,12</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 7,04</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,85</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 11,27</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 4,55</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 7,72</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>15,62%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>16,55%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>15,35%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>15,97%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>14,98%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>44,95%</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>21,76%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,85; 17,73</t>
+          <t>12,79; 17,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,24</t>
+          <t>13,24; 19,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,63; 18,38</t>
+          <t>13,18; 17,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,78; 16,59</t>
+          <t>11,69; 16,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,14; 52,67</t>
+          <t>18,45; 26,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 17,65</t>
+          <t>12,81; 17,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,44</t>
+          <t>15,16; 20,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,85; 18,64</t>
+          <t>13,9; 17,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,05; 17,94</t>
+          <t>14,36; 18,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,15; 48,58</t>
+          <t>14,73; 18,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,91; 16,87</t>
+          <t>14,03; 17,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,95</t>
+          <t>19,49; 24,68</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 17,77</t>
+          <t>12,59; 16,71</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,59; 16,61</t>
+          <t>18,1; 22,98</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>40,59; 48,52</t>
+          <t>13,8; 16,84</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 17,88</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 17,53</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 16,32</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 24,72</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 16,76</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 21,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31706</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16674</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13056</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28843</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4552</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6098</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36210</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22528</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32661</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31878</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52818</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2562</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>67916</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>45717</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>31878</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>81661</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>11373</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12660; 77737</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3945; 39572</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3883; 35872</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10630; 57111</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2298; 7966</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3548; 9659</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21256; 61859</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10067; 43027</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17852; 56118</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16220; 55839</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31114; 81205</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1154; 4890</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3251; 8080</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44558; 113756</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>22891; 66607</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>26442; 75065</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17737; 59133</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>51105; 120066</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4393; 11070</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>8000; 16269</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>158963</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>177866</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>162423</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>176489</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>252221</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11231</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7637</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>242324</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>243322</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>242448</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>229828</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>220726</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17425</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20486</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>401287</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>421188</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>404870</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>406318</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>472947</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>28657</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>28124</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>117922; 215727</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>124035; 237619</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>122645; 210194</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>134489; 240237</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>189962; 345791</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7483; 15082</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4762; 11510</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>204232; 275822</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>205986; 282330</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>209165; 278202</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>193941; 262624</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>183955; 260051</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13987; 21152</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17080; 24079</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>344040; 461913</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>355631; 493233</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>351757; 464758</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>350364; 479943</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>397626; 576793</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>23333; 34012</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>22848; 33556</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>262898</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>264431</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>279024</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>255952</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>292420</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20697</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25341</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>231494</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>257521</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>248924</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>243794</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>324703</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18487</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19474</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>494391</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>521952</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>527948</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>499746</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>617123</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>39184</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>44815</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>217023; 312518</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>217691; 321068</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>237738; 329926</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>212894; 305282</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>242227; 346116</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16825; 24653</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21132; 29827</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>198043; 267914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>221472; 299379</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>212796; 284784</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>210127; 279561</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>280694; 367229</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15313; 22188</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16017; 23349</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>433884; 554752</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>457346; 589613</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>466334; 586055</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>445518; 561589</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>548650; 685602</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>33949; 44263</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>39351; 50540</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34303</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35565</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25713</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120630</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5664</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9598</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26533</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25640</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28262</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35227</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>124759</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2267</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9337</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>61660</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>59943</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>63827</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>60941</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>245389</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>7931</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>18935</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19662; 53733</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19519; 56787</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19229; 69683</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14658; 42393</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>90058; 154544</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3264; 10613</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6884; 12819</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15035; 43925</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13156; 44438</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15801; 46070</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21537; 54156</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>95046; 159122</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1146; 3863</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7053; 12277</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>42367; 85429</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>39232; 86399</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>44056; 96909</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>42248; 83005</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>199023; 289025</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>5106; 12026</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>15226; 23150</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12756</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17060</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15488</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9524</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2183</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22805</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22219</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20084</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10667</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19911</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>35562</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>39279</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>35571</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>20192</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>40112</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>6150</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5547; 27829</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8260; 32293</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7236; 28996</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4338; 19918</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10020; 38456</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1042; 4190</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1181; 4171</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11442; 39595</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10619; 37203</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9843; 38845</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3787; 25194</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8101; 36816</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1332; 3982</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2334; 5911</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>21913; 54475</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>25485; 64274</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>21729; 54835</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>10448; 35994</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>23341; 59997</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>2956; 7381</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>4202; 8842</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18240</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>27621</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22910</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7383</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13306</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1255</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4765</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14988</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15754</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15418</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40449</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3214</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>23006</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>42609</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>38664</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>22801</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>53755</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>2391</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>5086</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2619; 70729</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6036; 89964</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4742; 80224</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2228; 20682</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2980; 36399</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>408; 3011</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>676; 3859</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17010</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5407; 39383</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5753; 38588</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4963; 35070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9307; 118478</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>296; 2938</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1574; 6042</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>7221; 74282</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>15402; 102247</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>16441; 85675</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>10200; 46962</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>21390; 143231</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>1007; 5005</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>3017; 8295</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>519691</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>537954</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>528465</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>475062</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>727621</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>45582</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52972</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>564131</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>586219</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>588132</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>566813</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>783366</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>44334</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>61512</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1083823</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1124173</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1116598</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1041875</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1510987</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>89915</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>114483</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>441081; 614615</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>454623; 652314</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>452558; 612544</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>401710; 569680</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>625808; 881633</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38587; 52800</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>45087; 61747</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>502332; 640397</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>517088; 662118</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>528715; 662861</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>504196; 632183</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>692585; 876863</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>38205; 50707</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>54032; 68598</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>974676; 1189338</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1003699; 1257378</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1019262; 1230972</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>940028; 1147821</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>1384039; 1716477</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>81513; 101367</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>104234; 125690</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>